--- a/results/pvalue_SIDER_all_pathway_AUROC.xlsx
+++ b/results/pvalue_SIDER_all_pathway_AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.337</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.352</t>
+          <t>0.005</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.191</t>
+          <t>7.621</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.089</t>
+          <t>6.407</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.218</t>
+          <t>7.606</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.052</t>
+          <t>5.586</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.529</t>
+          <t>0.007</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8.494</t>
+          <t>8.504</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7.989</t>
+          <t>7.998</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.873</t>
+          <t>8.884</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.719</t>
+          <t>7.728</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.689</t>
+          <t>5.131</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
